--- a/知识硬盘.xlsx
+++ b/知识硬盘.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>re与正则表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +152,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +216,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,9 +366,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -506,7 +513,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -791,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -801,326 +811,328 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="58" t="s">
+      <c r="A1" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="42" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="31"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="30"/>
       <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="35"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="34"/>
       <c r="Q2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="59" t="s">
+      <c r="R2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
     </row>
     <row r="3" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="35"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="34"/>
       <c r="T3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="35"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="35"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
     </row>
     <row r="7" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="35"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="34"/>
     </row>
     <row r="8" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="60" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="62" t="s">
+      <c r="E8" s="60"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="61"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="35"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="57" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="37"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="36"/>
     </row>
     <row r="10" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="37"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="36"/>
     </row>
     <row r="11" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="37"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="36"/>
     </row>
     <row r="12" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="37"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="36"/>
     </row>
     <row r="13" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="37"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="36"/>
     </row>
     <row r="14" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="23"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="37"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="36"/>
     </row>
     <row r="15" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="37"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="36"/>
     </row>
     <row r="16" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="41"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
     </row>
     <row r="17" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="2"/>
@@ -1130,16 +1142,16 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="45"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="44"/>
     </row>
     <row r="18" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
@@ -1150,14 +1162,14 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="49"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="48"/>
     </row>
     <row r="19" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
@@ -1168,14 +1180,14 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="49"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="48"/>
     </row>
     <row r="20" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
@@ -1186,14 +1198,14 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="49"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="48"/>
     </row>
     <row r="21" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
@@ -1204,14 +1216,14 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="49"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="48"/>
     </row>
     <row r="22" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
@@ -1222,14 +1234,14 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="49"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="48"/>
     </row>
     <row r="23" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
@@ -1240,54 +1252,54 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="49"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="48"/>
     </row>
     <row r="24" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="61"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="63" t="s">
+      <c r="I24" s="45"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="64"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="49"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="48"/>
     </row>
     <row r="25" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="52"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="51"/>
     </row>
     <row r="26" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
@@ -1298,14 +1310,14 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="52"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="51"/>
     </row>
     <row r="27" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
@@ -1316,14 +1328,14 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="51"/>
     </row>
     <row r="28" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
@@ -1334,14 +1346,14 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="52"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="51"/>
     </row>
     <row r="29" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
@@ -1352,14 +1364,14 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="51"/>
     </row>
     <row r="30" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
@@ -1370,14 +1382,14 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="52"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="51"/>
     </row>
     <row r="31" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
@@ -1388,14 +1400,14 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="52"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="51"/>
     </row>
     <row r="32" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
@@ -1406,14 +1418,14 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="14"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="56"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/知识硬盘.xlsx
+++ b/知识硬盘.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,11 +78,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>re与正则表达式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据结构</t>
+    <t>namedtuple</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +149,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="黑体"/>
@@ -320,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -495,6 +506,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -513,10 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -801,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -811,8 +825,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
-        <v>14</v>
+      <c r="A1" s="58" t="s">
+        <v>13</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -838,12 +852,14 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
+      <c r="A2" s="66" t="s">
+        <v>15</v>
+      </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="65" t="s">
-        <v>13</v>
+      <c r="E2" s="59" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
@@ -859,16 +875,16 @@
       <c r="Q2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="58" t="s">
+      <c r="R2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
     </row>
     <row r="3" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18"/>
@@ -967,20 +983,20 @@
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="60"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="21"/>
       <c r="I8" s="31"/>
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
-      <c r="L8" s="61" t="s">
+      <c r="L8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="60"/>
+      <c r="M8" s="62"/>
       <c r="N8" s="33"/>
       <c r="O8" s="33"/>
       <c r="P8" s="34"/>
@@ -989,8 +1005,8 @@
       <c r="A9" s="22"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="23"/>
@@ -999,8 +1015,8 @@
       </c>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
       <c r="P9" s="36"/>
@@ -1265,20 +1281,20 @@
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="60"/>
+      <c r="E24" s="62"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
       <c r="I24" s="45"/>
       <c r="J24" s="46"/>
       <c r="K24" s="46"/>
-      <c r="L24" s="62" t="s">
+      <c r="L24" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="63"/>
+      <c r="M24" s="65"/>
       <c r="N24" s="47"/>
       <c r="O24" s="47"/>
       <c r="P24" s="48"/>
@@ -1287,16 +1303,16 @@
       <c r="A25" s="9"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="10"/>
       <c r="I25" s="49"/>
       <c r="J25" s="47"/>
       <c r="K25" s="47"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
       <c r="N25" s="50"/>
       <c r="O25" s="50"/>
       <c r="P25" s="51"/>

--- a/知识硬盘.xlsx
+++ b/知识硬盘.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,7 +86,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>namedtuple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -512,6 +520,9 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -530,7 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -815,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -852,8 +863,8 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66" t="s">
-        <v>15</v>
+      <c r="A2" s="60" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -875,23 +886,27 @@
       <c r="Q2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="60" t="s">
+      <c r="R2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
     </row>
     <row r="3" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
+      <c r="A3" s="60" t="s">
+        <v>15</v>
+      </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="E3" s="67" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="21"/>
@@ -983,20 +998,20 @@
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="62"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="21"/>
       <c r="I8" s="31"/>
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
-      <c r="L8" s="63" t="s">
+      <c r="L8" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="62"/>
+      <c r="M8" s="63"/>
       <c r="N8" s="33"/>
       <c r="O8" s="33"/>
       <c r="P8" s="34"/>
@@ -1005,8 +1020,8 @@
       <c r="A9" s="22"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="23"/>
@@ -1015,8 +1030,8 @@
       </c>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
       <c r="P9" s="36"/>
@@ -1281,20 +1296,20 @@
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="62"/>
+      <c r="E24" s="63"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
       <c r="I24" s="45"/>
       <c r="J24" s="46"/>
       <c r="K24" s="46"/>
-      <c r="L24" s="64" t="s">
+      <c r="L24" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="47"/>
       <c r="O24" s="47"/>
       <c r="P24" s="48"/>
@@ -1303,16 +1318,16 @@
       <c r="A25" s="9"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="10"/>
       <c r="I25" s="49"/>
       <c r="J25" s="47"/>
       <c r="K25" s="47"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
       <c r="N25" s="50"/>
       <c r="O25" s="50"/>
       <c r="P25" s="51"/>
